--- a/DECISION/미장_드론_분석.xlsx
+++ b/DECISION/미장_드론_분석.xlsx
@@ -49,7 +49,7 @@
     <t>판단</t>
   </si>
   <si>
-    <t>2025-11-27</t>
+    <t>2025-11-28</t>
   </si>
   <si>
     <t>Joby Aviation, Inc.</t>

--- a/DECISION/미장_드론_분석.xlsx
+++ b/DECISION/미장_드론_분석.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>날짜</t>
   </si>
@@ -34,37 +34,55 @@
     <t>5일수익률</t>
   </si>
   <si>
-    <t>점수</t>
-  </si>
-  <si>
-    <t>3일확률</t>
-  </si>
-  <si>
-    <t>5일확률</t>
-  </si>
-  <si>
-    <t>10일확률</t>
+    <t>점수(룰)</t>
+  </si>
+  <si>
+    <t>3일상승확률(%)</t>
+  </si>
+  <si>
+    <t>5일상승확률(%)</t>
+  </si>
+  <si>
+    <t>10일상승확률(%)</t>
+  </si>
+  <si>
+    <t>최종점수</t>
+  </si>
+  <si>
+    <t>예측방식</t>
   </si>
   <si>
     <t>판단</t>
   </si>
   <si>
-    <t>2025-11-28</t>
+    <t>MACRO_SCORE</t>
+  </si>
+  <si>
+    <t>MACRO_SIGNAL</t>
+  </si>
+  <si>
+    <t>2025-11-29</t>
+  </si>
+  <si>
+    <t>Archer Aviation Inc.</t>
   </si>
   <si>
     <t>Joby Aviation, Inc.</t>
   </si>
   <si>
-    <t>Archer Aviation Inc.</t>
+    <t>ACHR</t>
   </si>
   <si>
     <t>JOBY</t>
   </si>
   <si>
-    <t>ACHR</t>
-  </si>
-  <si>
-    <t>건드리지 말기</t>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>⛔ 관망하십시오.</t>
+  </si>
+  <si>
+    <t>🟢 완화적 (상승 우위)</t>
   </si>
 </sst>
 </file>
@@ -422,13 +440,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,25 +480,34 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D2">
-        <v>14.12</v>
-      </c>
-      <c r="E2">
-        <v>48.5</v>
+        <v>7.82</v>
       </c>
       <c r="F2">
-        <v>3.29</v>
+        <v>13.76</v>
       </c>
       <c r="G2">
         <v>30</v>
@@ -489,33 +516,42 @@
         <v>56</v>
       </c>
       <c r="I2">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J2">
         <v>66</v>
       </c>
-      <c r="K2" t="s">
-        <v>16</v>
+      <c r="K2">
+        <v>59.8</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2">
+        <v>85.36763896678245</v>
+      </c>
+      <c r="O2" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D3">
-        <v>7.49</v>
-      </c>
-      <c r="E3">
-        <v>35.1</v>
+        <v>14.43</v>
       </c>
       <c r="F3">
-        <v>0.27</v>
+        <v>10.62</v>
       </c>
       <c r="G3">
         <v>20</v>
@@ -524,13 +560,25 @@
         <v>53</v>
       </c>
       <c r="I3">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="J3">
-        <v>73</v>
-      </c>
-      <c r="K3" t="s">
-        <v>16</v>
+        <v>66</v>
+      </c>
+      <c r="K3">
+        <v>56.8</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3">
+        <v>85.36763896678245</v>
+      </c>
+      <c r="O3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/DECISION/미장_드론_분석.xlsx
+++ b/DECISION/미장_드론_분석.xlsx
@@ -504,10 +504,10 @@
         <v>18</v>
       </c>
       <c r="D2">
-        <v>7.82</v>
+        <v>7.8</v>
       </c>
       <c r="F2">
-        <v>13.76</v>
+        <v>13.54</v>
       </c>
       <c r="G2">
         <v>30</v>
@@ -522,7 +522,7 @@
         <v>66</v>
       </c>
       <c r="K2">
-        <v>59.8</v>
+        <v>60</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
@@ -531,7 +531,7 @@
         <v>21</v>
       </c>
       <c r="N2">
-        <v>85.36763896678245</v>
+        <v>85.96878041621773</v>
       </c>
       <c r="O2" t="s">
         <v>22</v>
@@ -548,10 +548,10 @@
         <v>19</v>
       </c>
       <c r="D3">
-        <v>14.43</v>
+        <v>14.41</v>
       </c>
       <c r="F3">
-        <v>10.62</v>
+        <v>10.54</v>
       </c>
       <c r="G3">
         <v>20</v>
@@ -566,7 +566,7 @@
         <v>66</v>
       </c>
       <c r="K3">
-        <v>56.8</v>
+        <v>57</v>
       </c>
       <c r="L3" t="s">
         <v>20</v>
@@ -575,7 +575,7 @@
         <v>21</v>
       </c>
       <c r="N3">
-        <v>85.36763896678245</v>
+        <v>85.96878041621773</v>
       </c>
       <c r="O3" t="s">
         <v>22</v>

--- a/DECISION/미장_드론_분석.xlsx
+++ b/DECISION/미장_드론_분석.xlsx
@@ -504,10 +504,10 @@
         <v>18</v>
       </c>
       <c r="D2">
-        <v>7.8</v>
+        <v>7.79</v>
       </c>
       <c r="F2">
-        <v>13.54</v>
+        <v>13.39</v>
       </c>
       <c r="G2">
         <v>30</v>
@@ -531,7 +531,7 @@
         <v>21</v>
       </c>
       <c r="N2">
-        <v>85.96878041621773</v>
+        <v>85.83574689470727</v>
       </c>
       <c r="O2" t="s">
         <v>22</v>
@@ -575,7 +575,7 @@
         <v>21</v>
       </c>
       <c r="N3">
-        <v>85.96878041621773</v>
+        <v>85.83574689470727</v>
       </c>
       <c r="O3" t="s">
         <v>22</v>

--- a/DECISION/미장_드론_분석.xlsx
+++ b/DECISION/미장_드론_분석.xlsx
@@ -522,7 +522,7 @@
         <v>66</v>
       </c>
       <c r="K2">
-        <v>60</v>
+        <v>59.9</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
@@ -531,7 +531,7 @@
         <v>21</v>
       </c>
       <c r="N2">
-        <v>85.83574689470727</v>
+        <v>85.82376350509293</v>
       </c>
       <c r="O2" t="s">
         <v>22</v>
@@ -548,10 +548,10 @@
         <v>19</v>
       </c>
       <c r="D3">
-        <v>14.41</v>
+        <v>14.43</v>
       </c>
       <c r="F3">
-        <v>10.54</v>
+        <v>10.66</v>
       </c>
       <c r="G3">
         <v>20</v>
@@ -566,7 +566,7 @@
         <v>66</v>
       </c>
       <c r="K3">
-        <v>57</v>
+        <v>56.9</v>
       </c>
       <c r="L3" t="s">
         <v>20</v>
@@ -575,7 +575,7 @@
         <v>21</v>
       </c>
       <c r="N3">
-        <v>85.83574689470727</v>
+        <v>85.82376350509293</v>
       </c>
       <c r="O3" t="s">
         <v>22</v>

--- a/DECISION/미장_드론_분석.xlsx
+++ b/DECISION/미장_드론_분석.xlsx
@@ -531,7 +531,7 @@
         <v>21</v>
       </c>
       <c r="N2">
-        <v>85.82376350509293</v>
+        <v>85.77505782882612</v>
       </c>
       <c r="O2" t="s">
         <v>22</v>
@@ -575,7 +575,7 @@
         <v>21</v>
       </c>
       <c r="N3">
-        <v>85.82376350509293</v>
+        <v>85.77505782882612</v>
       </c>
       <c r="O3" t="s">
         <v>22</v>

--- a/DECISION/미장_드론_분석.xlsx
+++ b/DECISION/미장_드론_분석.xlsx
@@ -522,7 +522,7 @@
         <v>66</v>
       </c>
       <c r="K2">
-        <v>59.9</v>
+        <v>60</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
@@ -531,7 +531,7 @@
         <v>21</v>
       </c>
       <c r="N2">
-        <v>85.77505782882612</v>
+        <v>85.8724807945396</v>
       </c>
       <c r="O2" t="s">
         <v>22</v>
@@ -566,7 +566,7 @@
         <v>66</v>
       </c>
       <c r="K3">
-        <v>56.9</v>
+        <v>57</v>
       </c>
       <c r="L3" t="s">
         <v>20</v>
@@ -575,7 +575,7 @@
         <v>21</v>
       </c>
       <c r="N3">
-        <v>85.77505782882612</v>
+        <v>85.8724807945396</v>
       </c>
       <c r="O3" t="s">
         <v>22</v>

--- a/DECISION/미장_드론_분석.xlsx
+++ b/DECISION/미장_드론_분석.xlsx
@@ -531,7 +531,7 @@
         <v>21</v>
       </c>
       <c r="N2">
-        <v>85.8724807945396</v>
+        <v>85.92117485762657</v>
       </c>
       <c r="O2" t="s">
         <v>22</v>
@@ -575,7 +575,7 @@
         <v>21</v>
       </c>
       <c r="N3">
-        <v>85.8724807945396</v>
+        <v>85.92117485762657</v>
       </c>
       <c r="O3" t="s">
         <v>22</v>

--- a/DECISION/미장_드론_분석.xlsx
+++ b/DECISION/미장_드론_분석.xlsx
@@ -531,7 +531,7 @@
         <v>21</v>
       </c>
       <c r="N2">
-        <v>85.92117485762657</v>
+        <v>85.8724807945396</v>
       </c>
       <c r="O2" t="s">
         <v>22</v>
@@ -575,7 +575,7 @@
         <v>21</v>
       </c>
       <c r="N3">
-        <v>85.92117485762657</v>
+        <v>85.8724807945396</v>
       </c>
       <c r="O3" t="s">
         <v>22</v>

--- a/DECISION/미장_드론_분석.xlsx
+++ b/DECISION/미장_드론_분석.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>날짜</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>Pattern</t>
+  </si>
+  <si>
+    <t>📈 매수 관찰 구간입니다.</t>
   </si>
   <si>
     <t>⛔ 관망하십시오.</t>
@@ -506,11 +509,14 @@
       <c r="D2">
         <v>7.79</v>
       </c>
+      <c r="E2">
+        <v>45.4</v>
+      </c>
       <c r="F2">
         <v>13.39</v>
       </c>
       <c r="G2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H2">
         <v>56</v>
@@ -522,7 +528,7 @@
         <v>66</v>
       </c>
       <c r="K2">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
@@ -531,10 +537,10 @@
         <v>21</v>
       </c>
       <c r="N2">
-        <v>85.8724807945396</v>
+        <v>85.87127175646313</v>
       </c>
       <c r="O2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -550,11 +556,14 @@
       <c r="D3">
         <v>14.43</v>
       </c>
+      <c r="E3">
+        <v>46.2</v>
+      </c>
       <c r="F3">
         <v>10.66</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H3">
         <v>53</v>
@@ -566,19 +575,19 @@
         <v>66</v>
       </c>
       <c r="K3">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
         <v>20</v>
       </c>
       <c r="M3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N3">
-        <v>85.8724807945396</v>
+        <v>85.87127175646313</v>
       </c>
       <c r="O3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/DECISION/미장_드론_분석.xlsx
+++ b/DECISION/미장_드론_분석.xlsx
@@ -61,7 +61,7 @@
     <t>MACRO_SIGNAL</t>
   </si>
   <si>
-    <t>2025-11-29</t>
+    <t>2025-12-01</t>
   </si>
   <si>
     <t>Archer Aviation Inc.</t>
@@ -537,7 +537,7 @@
         <v>21</v>
       </c>
       <c r="N2">
-        <v>85.87127175646313</v>
+        <v>85.87246918135976</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -584,7 +584,7 @@
         <v>22</v>
       </c>
       <c r="N3">
-        <v>85.87127175646313</v>
+        <v>85.87246918135976</v>
       </c>
       <c r="O3" t="s">
         <v>23</v>

--- a/DECISION/미장_드론_분석.xlsx
+++ b/DECISION/미장_드론_분석.xlsx
@@ -537,7 +537,7 @@
         <v>21</v>
       </c>
       <c r="N2">
-        <v>85.87246918135976</v>
+        <v>85.92500513438651</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -584,7 +584,7 @@
         <v>22</v>
       </c>
       <c r="N3">
-        <v>85.87246918135976</v>
+        <v>85.92500513438651</v>
       </c>
       <c r="O3" t="s">
         <v>23</v>

--- a/DECISION/미장_드론_분석.xlsx
+++ b/DECISION/미장_드론_분석.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>날짜</t>
   </si>
@@ -61,31 +61,28 @@
     <t>MACRO_SIGNAL</t>
   </si>
   <si>
-    <t>2025-12-01</t>
+    <t>2025-12-03</t>
+  </si>
+  <si>
+    <t>Joby Aviation, Inc.</t>
   </si>
   <si>
     <t>Archer Aviation Inc.</t>
   </si>
   <si>
-    <t>Joby Aviation, Inc.</t>
+    <t>JOBY</t>
   </si>
   <si>
     <t>ACHR</t>
   </si>
   <si>
-    <t>JOBY</t>
-  </si>
-  <si>
     <t>Pattern</t>
   </si>
   <si>
-    <t>📈 매수 관찰 구간입니다.</t>
-  </si>
-  <si>
     <t>⛔ 관망하십시오.</t>
   </si>
   <si>
-    <t>🟢 완화적 (상승 우위)</t>
+    <t>🟢 상승 우위 (다소 완화)</t>
   </si>
 </sst>
 </file>
@@ -507,28 +504,28 @@
         <v>18</v>
       </c>
       <c r="D2">
-        <v>7.79</v>
+        <v>14.08</v>
       </c>
       <c r="E2">
-        <v>45.4</v>
+        <v>32.1</v>
       </c>
       <c r="F2">
-        <v>13.39</v>
+        <v>1.34</v>
       </c>
       <c r="G2">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H2">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="I2">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="J2">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="K2">
-        <v>63</v>
+        <v>57.8</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
@@ -537,10 +534,10 @@
         <v>21</v>
       </c>
       <c r="N2">
-        <v>85.92500513438651</v>
+        <v>65.32892478746797</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -554,40 +551,40 @@
         <v>19</v>
       </c>
       <c r="D3">
-        <v>14.43</v>
+        <v>7.75</v>
       </c>
       <c r="E3">
-        <v>46.2</v>
+        <v>35.6</v>
       </c>
       <c r="F3">
-        <v>10.66</v>
+        <v>4.23</v>
       </c>
       <c r="G3">
         <v>30</v>
       </c>
       <c r="H3">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I3">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="J3">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K3">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="L3" t="s">
         <v>20</v>
       </c>
       <c r="M3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3">
+        <v>65.32892478746797</v>
+      </c>
+      <c r="O3" t="s">
         <v>22</v>
-      </c>
-      <c r="N3">
-        <v>85.92500513438651</v>
-      </c>
-      <c r="O3" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/DECISION/미장_드론_분석.xlsx
+++ b/DECISION/미장_드론_분석.xlsx
@@ -504,16 +504,16 @@
         <v>18</v>
       </c>
       <c r="D2">
-        <v>14.08</v>
+        <v>13.83</v>
       </c>
       <c r="E2">
-        <v>32.1</v>
+        <v>29.3</v>
       </c>
       <c r="F2">
-        <v>1.34</v>
+        <v>-0.43</v>
       </c>
       <c r="G2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H2">
         <v>63</v>
@@ -525,7 +525,7 @@
         <v>73</v>
       </c>
       <c r="K2">
-        <v>57.8</v>
+        <v>55</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
@@ -534,7 +534,7 @@
         <v>21</v>
       </c>
       <c r="N2">
-        <v>65.32892478746797</v>
+        <v>66.04328690552585</v>
       </c>
       <c r="O2" t="s">
         <v>22</v>
@@ -551,13 +551,13 @@
         <v>19</v>
       </c>
       <c r="D3">
-        <v>7.75</v>
+        <v>7.65</v>
       </c>
       <c r="E3">
-        <v>35.6</v>
+        <v>33.9</v>
       </c>
       <c r="F3">
-        <v>4.23</v>
+        <v>2.82</v>
       </c>
       <c r="G3">
         <v>30</v>
@@ -569,10 +569,10 @@
         <v>56</v>
       </c>
       <c r="J3">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K3">
-        <v>51</v>
+        <v>51.2</v>
       </c>
       <c r="L3" t="s">
         <v>20</v>
@@ -581,7 +581,7 @@
         <v>21</v>
       </c>
       <c r="N3">
-        <v>65.32892478746797</v>
+        <v>66.04328690552585</v>
       </c>
       <c r="O3" t="s">
         <v>22</v>

--- a/DECISION/미장_드론_분석.xlsx
+++ b/DECISION/미장_드론_분석.xlsx
@@ -534,7 +534,7 @@
         <v>21</v>
       </c>
       <c r="N2">
-        <v>66.04328690552585</v>
+        <v>66.09241856096124</v>
       </c>
       <c r="O2" t="s">
         <v>22</v>
@@ -581,7 +581,7 @@
         <v>21</v>
       </c>
       <c r="N3">
-        <v>66.04328690552585</v>
+        <v>66.09241856096124</v>
       </c>
       <c r="O3" t="s">
         <v>22</v>

--- a/DECISION/미장_드론_분석.xlsx
+++ b/DECISION/미장_드론_분석.xlsx
@@ -61,7 +61,7 @@
     <t>MACRO_SIGNAL</t>
   </si>
   <si>
-    <t>2025-12-03</t>
+    <t>2025-12-05</t>
   </si>
   <si>
     <t>Joby Aviation, Inc.</t>
@@ -82,7 +82,7 @@
     <t>⛔ 관망하십시오.</t>
   </si>
   <si>
-    <t>🟢 상승 우위 (다소 완화)</t>
+    <t>⚪ 중립 구간</t>
   </si>
 </sst>
 </file>
@@ -504,28 +504,28 @@
         <v>18</v>
       </c>
       <c r="D2">
-        <v>13.83</v>
+        <v>15.55</v>
       </c>
       <c r="E2">
-        <v>29.3</v>
+        <v>56.1</v>
       </c>
       <c r="F2">
-        <v>-0.43</v>
+        <v>10.13</v>
       </c>
       <c r="G2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H2">
+        <v>50</v>
+      </c>
+      <c r="I2">
+        <v>66</v>
+      </c>
+      <c r="J2">
         <v>63</v>
       </c>
-      <c r="I2">
-        <v>73</v>
-      </c>
-      <c r="J2">
-        <v>73</v>
-      </c>
       <c r="K2">
-        <v>55</v>
+        <v>57.1</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
@@ -534,7 +534,7 @@
         <v>21</v>
       </c>
       <c r="N2">
-        <v>66.09241856096124</v>
+        <v>52.43913937059539</v>
       </c>
       <c r="O2" t="s">
         <v>22</v>
@@ -551,28 +551,28 @@
         <v>19</v>
       </c>
       <c r="D3">
-        <v>7.65</v>
+        <v>8.68</v>
       </c>
       <c r="E3">
-        <v>33.9</v>
+        <v>58.8</v>
       </c>
       <c r="F3">
-        <v>2.82</v>
+        <v>15.83</v>
       </c>
       <c r="G3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H3">
+        <v>36</v>
+      </c>
+      <c r="I3">
         <v>50</v>
       </c>
-      <c r="I3">
-        <v>56</v>
-      </c>
       <c r="J3">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="K3">
-        <v>51.2</v>
+        <v>53.7</v>
       </c>
       <c r="L3" t="s">
         <v>20</v>
@@ -581,7 +581,7 @@
         <v>21</v>
       </c>
       <c r="N3">
-        <v>66.09241856096124</v>
+        <v>52.43913937059539</v>
       </c>
       <c r="O3" t="s">
         <v>22</v>

--- a/DECISION/미장_드론_분석.xlsx
+++ b/DECISION/미장_드론_분석.xlsx
@@ -504,13 +504,13 @@
         <v>18</v>
       </c>
       <c r="D2">
-        <v>15.55</v>
+        <v>15.48</v>
       </c>
       <c r="E2">
-        <v>56.1</v>
+        <v>55.6</v>
       </c>
       <c r="F2">
-        <v>10.13</v>
+        <v>9.67</v>
       </c>
       <c r="G2">
         <v>50</v>
@@ -534,7 +534,7 @@
         <v>21</v>
       </c>
       <c r="N2">
-        <v>52.43913937059539</v>
+        <v>52.47848103381103</v>
       </c>
       <c r="O2" t="s">
         <v>22</v>
@@ -551,28 +551,28 @@
         <v>19</v>
       </c>
       <c r="D3">
-        <v>8.68</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="E3">
-        <v>58.8</v>
+        <v>58.5</v>
       </c>
       <c r="F3">
-        <v>15.83</v>
+        <v>15.38</v>
       </c>
       <c r="G3">
         <v>60</v>
       </c>
       <c r="H3">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I3">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J3">
         <v>60</v>
       </c>
       <c r="K3">
-        <v>53.7</v>
+        <v>54.9</v>
       </c>
       <c r="L3" t="s">
         <v>20</v>
@@ -581,7 +581,7 @@
         <v>21</v>
       </c>
       <c r="N3">
-        <v>52.43913937059539</v>
+        <v>52.47848103381103</v>
       </c>
       <c r="O3" t="s">
         <v>22</v>

--- a/DECISION/미장_드론_분석.xlsx
+++ b/DECISION/미장_드론_분석.xlsx
@@ -504,13 +504,13 @@
         <v>18</v>
       </c>
       <c r="D2">
-        <v>15.48</v>
+        <v>15.54</v>
       </c>
       <c r="E2">
-        <v>55.6</v>
+        <v>56</v>
       </c>
       <c r="F2">
-        <v>9.67</v>
+        <v>10.02</v>
       </c>
       <c r="G2">
         <v>50</v>
@@ -525,7 +525,7 @@
         <v>63</v>
       </c>
       <c r="K2">
-        <v>57.1</v>
+        <v>57.5</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
@@ -534,7 +534,7 @@
         <v>21</v>
       </c>
       <c r="N2">
-        <v>52.47848103381103</v>
+        <v>53.62998959737769</v>
       </c>
       <c r="O2" t="s">
         <v>22</v>
@@ -551,28 +551,28 @@
         <v>19</v>
       </c>
       <c r="D3">
-        <v>8.640000000000001</v>
+        <v>8.66</v>
       </c>
       <c r="E3">
-        <v>58.5</v>
+        <v>58.7</v>
       </c>
       <c r="F3">
-        <v>15.38</v>
+        <v>15.69</v>
       </c>
       <c r="G3">
         <v>60</v>
       </c>
       <c r="H3">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I3">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J3">
         <v>60</v>
       </c>
       <c r="K3">
-        <v>54.9</v>
+        <v>54.1</v>
       </c>
       <c r="L3" t="s">
         <v>20</v>
@@ -581,7 +581,7 @@
         <v>21</v>
       </c>
       <c r="N3">
-        <v>52.47848103381103</v>
+        <v>53.62998959737769</v>
       </c>
       <c r="O3" t="s">
         <v>22</v>

--- a/DECISION/미장_드론_분석.xlsx
+++ b/DECISION/미장_드론_분석.xlsx
@@ -504,25 +504,25 @@
         <v>18</v>
       </c>
       <c r="D2">
-        <v>15.54</v>
+        <v>15.6</v>
       </c>
       <c r="E2">
-        <v>56</v>
+        <v>56.4</v>
       </c>
       <c r="F2">
-        <v>10.02</v>
+        <v>10.45</v>
       </c>
       <c r="G2">
         <v>50</v>
       </c>
       <c r="H2">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I2">
         <v>66</v>
       </c>
       <c r="J2">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K2">
         <v>57.5</v>
@@ -534,7 +534,7 @@
         <v>21</v>
       </c>
       <c r="N2">
-        <v>53.62998959737769</v>
+        <v>53.71147335634279</v>
       </c>
       <c r="O2" t="s">
         <v>22</v>
@@ -551,13 +551,13 @@
         <v>19</v>
       </c>
       <c r="D3">
-        <v>8.66</v>
+        <v>8.68</v>
       </c>
       <c r="E3">
-        <v>58.7</v>
+        <v>58.8</v>
       </c>
       <c r="F3">
-        <v>15.69</v>
+        <v>15.82</v>
       </c>
       <c r="G3">
         <v>60</v>
@@ -581,7 +581,7 @@
         <v>21</v>
       </c>
       <c r="N3">
-        <v>53.62998959737769</v>
+        <v>53.71147335634279</v>
       </c>
       <c r="O3" t="s">
         <v>22</v>

--- a/DECISION/미장_드론_분석.xlsx
+++ b/DECISION/미장_드론_분석.xlsx
@@ -504,13 +504,13 @@
         <v>18</v>
       </c>
       <c r="D2">
-        <v>15.6</v>
+        <v>15.72</v>
       </c>
       <c r="E2">
-        <v>56.4</v>
+        <v>57.2</v>
       </c>
       <c r="F2">
-        <v>10.45</v>
+        <v>11.3</v>
       </c>
       <c r="G2">
         <v>50</v>
@@ -525,7 +525,7 @@
         <v>66</v>
       </c>
       <c r="K2">
-        <v>57.5</v>
+        <v>57.6</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
@@ -534,7 +534,7 @@
         <v>21</v>
       </c>
       <c r="N2">
-        <v>53.71147335634279</v>
+        <v>54.02451352198364</v>
       </c>
       <c r="O2" t="s">
         <v>22</v>
@@ -551,19 +551,19 @@
         <v>19</v>
       </c>
       <c r="D3">
-        <v>8.68</v>
+        <v>8.73</v>
       </c>
       <c r="E3">
-        <v>58.8</v>
+        <v>59.3</v>
       </c>
       <c r="F3">
-        <v>15.82</v>
+        <v>16.49</v>
       </c>
       <c r="G3">
         <v>60</v>
       </c>
       <c r="H3">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I3">
         <v>50</v>
@@ -572,7 +572,7 @@
         <v>60</v>
       </c>
       <c r="K3">
-        <v>54.1</v>
+        <v>54.2</v>
       </c>
       <c r="L3" t="s">
         <v>20</v>
@@ -581,7 +581,7 @@
         <v>21</v>
       </c>
       <c r="N3">
-        <v>53.71147335634279</v>
+        <v>54.02451352198364</v>
       </c>
       <c r="O3" t="s">
         <v>22</v>

--- a/DECISION/미장_드론_분석.xlsx
+++ b/DECISION/미장_드론_분석.xlsx
@@ -504,13 +504,13 @@
         <v>18</v>
       </c>
       <c r="D2">
-        <v>15.72</v>
+        <v>15.76</v>
       </c>
       <c r="E2">
-        <v>57.2</v>
+        <v>57.5</v>
       </c>
       <c r="F2">
-        <v>11.3</v>
+        <v>11.61</v>
       </c>
       <c r="G2">
         <v>50</v>
@@ -525,7 +525,7 @@
         <v>66</v>
       </c>
       <c r="K2">
-        <v>57.6</v>
+        <v>57.9</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
@@ -534,7 +534,7 @@
         <v>21</v>
       </c>
       <c r="N2">
-        <v>54.02451352198364</v>
+        <v>54.85170003294819</v>
       </c>
       <c r="O2" t="s">
         <v>22</v>
@@ -551,13 +551,13 @@
         <v>19</v>
       </c>
       <c r="D3">
-        <v>8.73</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="E3">
-        <v>59.3</v>
+        <v>61.4</v>
       </c>
       <c r="F3">
-        <v>16.49</v>
+        <v>19.49</v>
       </c>
       <c r="G3">
         <v>60</v>
@@ -572,7 +572,7 @@
         <v>60</v>
       </c>
       <c r="K3">
-        <v>54.2</v>
+        <v>54.5</v>
       </c>
       <c r="L3" t="s">
         <v>20</v>
@@ -581,7 +581,7 @@
         <v>21</v>
       </c>
       <c r="N3">
-        <v>54.02451352198364</v>
+        <v>54.85170003294819</v>
       </c>
       <c r="O3" t="s">
         <v>22</v>

--- a/DECISION/미장_드론_분석.xlsx
+++ b/DECISION/미장_드론_분석.xlsx
@@ -534,7 +534,7 @@
         <v>21</v>
       </c>
       <c r="N2">
-        <v>54.85170003294819</v>
+        <v>54.86376272656823</v>
       </c>
       <c r="O2" t="s">
         <v>22</v>
@@ -581,7 +581,7 @@
         <v>21</v>
       </c>
       <c r="N3">
-        <v>54.85170003294819</v>
+        <v>54.86376272656823</v>
       </c>
       <c r="O3" t="s">
         <v>22</v>

--- a/DECISION/미장_드론_분석.xlsx
+++ b/DECISION/미장_드론_분석.xlsx
@@ -534,7 +534,7 @@
         <v>21</v>
       </c>
       <c r="N2">
-        <v>54.86376272656823</v>
+        <v>54.84087454262382</v>
       </c>
       <c r="O2" t="s">
         <v>22</v>
@@ -581,7 +581,7 @@
         <v>21</v>
       </c>
       <c r="N3">
-        <v>54.86376272656823</v>
+        <v>54.84087454262382</v>
       </c>
       <c r="O3" t="s">
         <v>22</v>

--- a/DECISION/미장_드론_분석.xlsx
+++ b/DECISION/미장_드론_분석.xlsx
@@ -525,7 +525,7 @@
         <v>66</v>
       </c>
       <c r="K2">
-        <v>57.9</v>
+        <v>57.8</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
@@ -534,7 +534,7 @@
         <v>21</v>
       </c>
       <c r="N2">
-        <v>54.84087454262382</v>
+        <v>54.82400714602223</v>
       </c>
       <c r="O2" t="s">
         <v>22</v>
@@ -572,7 +572,7 @@
         <v>60</v>
       </c>
       <c r="K3">
-        <v>54.5</v>
+        <v>54.4</v>
       </c>
       <c r="L3" t="s">
         <v>20</v>
@@ -581,7 +581,7 @@
         <v>21</v>
       </c>
       <c r="N3">
-        <v>54.84087454262382</v>
+        <v>54.82400714602223</v>
       </c>
       <c r="O3" t="s">
         <v>22</v>

--- a/DECISION/미장_드론_분석.xlsx
+++ b/DECISION/미장_드론_분석.xlsx
@@ -525,7 +525,7 @@
         <v>66</v>
       </c>
       <c r="K2">
-        <v>57.8</v>
+        <v>57.9</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
@@ -534,7 +534,7 @@
         <v>21</v>
       </c>
       <c r="N2">
-        <v>54.82400714602223</v>
+        <v>54.83846622768671</v>
       </c>
       <c r="O2" t="s">
         <v>22</v>
@@ -572,7 +572,7 @@
         <v>60</v>
       </c>
       <c r="K3">
-        <v>54.4</v>
+        <v>54.5</v>
       </c>
       <c r="L3" t="s">
         <v>20</v>
@@ -581,7 +581,7 @@
         <v>21</v>
       </c>
       <c r="N3">
-        <v>54.82400714602223</v>
+        <v>54.83846622768671</v>
       </c>
       <c r="O3" t="s">
         <v>22</v>

--- a/DECISION/미장_드론_분석.xlsx
+++ b/DECISION/미장_드론_분석.xlsx
@@ -525,7 +525,7 @@
         <v>66</v>
       </c>
       <c r="K2">
-        <v>57.9</v>
+        <v>57.8</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
@@ -534,7 +534,7 @@
         <v>21</v>
       </c>
       <c r="N2">
-        <v>54.83846622768671</v>
+        <v>54.77309453746771</v>
       </c>
       <c r="O2" t="s">
         <v>22</v>
@@ -572,7 +572,7 @@
         <v>60</v>
       </c>
       <c r="K3">
-        <v>54.5</v>
+        <v>54.4</v>
       </c>
       <c r="L3" t="s">
         <v>20</v>
@@ -581,7 +581,7 @@
         <v>21</v>
       </c>
       <c r="N3">
-        <v>54.83846622768671</v>
+        <v>54.77309453746771</v>
       </c>
       <c r="O3" t="s">
         <v>22</v>

--- a/DECISION/미장_드론_분석.xlsx
+++ b/DECISION/미장_드론_분석.xlsx
@@ -525,7 +525,7 @@
         <v>66</v>
       </c>
       <c r="K2">
-        <v>57.8</v>
+        <v>56.9</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
@@ -534,7 +534,7 @@
         <v>21</v>
       </c>
       <c r="N2">
-        <v>54.77309453746771</v>
+        <v>51.53902399942638</v>
       </c>
       <c r="O2" t="s">
         <v>22</v>
@@ -572,7 +572,7 @@
         <v>60</v>
       </c>
       <c r="K3">
-        <v>54.4</v>
+        <v>53.5</v>
       </c>
       <c r="L3" t="s">
         <v>20</v>
@@ -581,7 +581,7 @@
         <v>21</v>
       </c>
       <c r="N3">
-        <v>54.77309453746771</v>
+        <v>51.53902399942638</v>
       </c>
       <c r="O3" t="s">
         <v>22</v>

--- a/DECISION/미장_드론_분석.xlsx
+++ b/DECISION/미장_드론_분석.xlsx
@@ -525,7 +525,7 @@
         <v>66</v>
       </c>
       <c r="K2">
-        <v>56.9</v>
+        <v>56.7</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
@@ -534,7 +534,7 @@
         <v>21</v>
       </c>
       <c r="N2">
-        <v>51.53902399942638</v>
+        <v>51.15965480231979</v>
       </c>
       <c r="O2" t="s">
         <v>22</v>
@@ -572,7 +572,7 @@
         <v>60</v>
       </c>
       <c r="K3">
-        <v>53.5</v>
+        <v>53.3</v>
       </c>
       <c r="L3" t="s">
         <v>20</v>
@@ -581,7 +581,7 @@
         <v>21</v>
       </c>
       <c r="N3">
-        <v>51.53902399942638</v>
+        <v>51.15965480231979</v>
       </c>
       <c r="O3" t="s">
         <v>22</v>

--- a/DECISION/미장_드론_분석.xlsx
+++ b/DECISION/미장_드론_분석.xlsx
@@ -534,7 +534,7 @@
         <v>21</v>
       </c>
       <c r="N2">
-        <v>51.15965480231979</v>
+        <v>51.05762969290213</v>
       </c>
       <c r="O2" t="s">
         <v>22</v>
@@ -581,7 +581,7 @@
         <v>21</v>
       </c>
       <c r="N3">
-        <v>51.15965480231979</v>
+        <v>51.05762969290213</v>
       </c>
       <c r="O3" t="s">
         <v>22</v>

--- a/DECISION/미장_드론_분석.xlsx
+++ b/DECISION/미장_드론_분석.xlsx
@@ -61,19 +61,19 @@
     <t>MACRO_SIGNAL</t>
   </si>
   <si>
-    <t>2025-12-05</t>
+    <t>2025-12-06</t>
+  </si>
+  <si>
+    <t>Archer Aviation Inc.</t>
   </si>
   <si>
     <t>Joby Aviation, Inc.</t>
   </si>
   <si>
-    <t>Archer Aviation Inc.</t>
+    <t>ACHR</t>
   </si>
   <si>
     <t>JOBY</t>
-  </si>
-  <si>
-    <t>ACHR</t>
   </si>
   <si>
     <t>Pattern</t>
@@ -504,28 +504,28 @@
         <v>18</v>
       </c>
       <c r="D2">
-        <v>15.76</v>
+        <v>8.82</v>
       </c>
       <c r="E2">
+        <v>60.8</v>
+      </c>
+      <c r="F2">
+        <v>13.29</v>
+      </c>
+      <c r="G2">
+        <v>60</v>
+      </c>
+      <c r="H2">
+        <v>46</v>
+      </c>
+      <c r="I2">
+        <v>60</v>
+      </c>
+      <c r="J2">
+        <v>73</v>
+      </c>
+      <c r="K2">
         <v>57.5</v>
-      </c>
-      <c r="F2">
-        <v>11.61</v>
-      </c>
-      <c r="G2">
-        <v>50</v>
-      </c>
-      <c r="H2">
-        <v>53</v>
-      </c>
-      <c r="I2">
-        <v>66</v>
-      </c>
-      <c r="J2">
-        <v>66</v>
-      </c>
-      <c r="K2">
-        <v>56.7</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
@@ -534,7 +534,7 @@
         <v>21</v>
       </c>
       <c r="N2">
-        <v>51.05762969290213</v>
+        <v>51.54219175917372</v>
       </c>
       <c r="O2" t="s">
         <v>22</v>
@@ -551,28 +551,28 @@
         <v>19</v>
       </c>
       <c r="D3">
-        <v>8.949999999999999</v>
+        <v>15.4</v>
       </c>
       <c r="E3">
-        <v>61.4</v>
+        <v>57.7</v>
       </c>
       <c r="F3">
-        <v>19.49</v>
+        <v>6.74</v>
       </c>
       <c r="G3">
         <v>60</v>
       </c>
       <c r="H3">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="I3">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="J3">
         <v>60</v>
       </c>
       <c r="K3">
-        <v>53.3</v>
+        <v>57.5</v>
       </c>
       <c r="L3" t="s">
         <v>20</v>
@@ -581,7 +581,7 @@
         <v>21</v>
       </c>
       <c r="N3">
-        <v>51.05762969290213</v>
+        <v>51.54219175917372</v>
       </c>
       <c r="O3" t="s">
         <v>22</v>

--- a/DECISION/미장_드론_분석.xlsx
+++ b/DECISION/미장_드론_분석.xlsx
@@ -504,19 +504,19 @@
         <v>18</v>
       </c>
       <c r="D2">
-        <v>8.82</v>
+        <v>8.69</v>
       </c>
       <c r="E2">
-        <v>60.8</v>
+        <v>59</v>
       </c>
       <c r="F2">
-        <v>13.29</v>
+        <v>11.59</v>
       </c>
       <c r="G2">
         <v>60</v>
       </c>
       <c r="H2">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I2">
         <v>60</v>
@@ -525,7 +525,7 @@
         <v>73</v>
       </c>
       <c r="K2">
-        <v>57.5</v>
+        <v>57.2</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
@@ -534,7 +534,7 @@
         <v>21</v>
       </c>
       <c r="N2">
-        <v>51.54219175917372</v>
+        <v>50.60178744571824</v>
       </c>
       <c r="O2" t="s">
         <v>22</v>
@@ -551,13 +551,13 @@
         <v>19</v>
       </c>
       <c r="D3">
-        <v>15.4</v>
+        <v>15.35</v>
       </c>
       <c r="E3">
-        <v>57.7</v>
+        <v>57.2</v>
       </c>
       <c r="F3">
-        <v>6.74</v>
+        <v>6.34</v>
       </c>
       <c r="G3">
         <v>60</v>
@@ -572,7 +572,7 @@
         <v>60</v>
       </c>
       <c r="K3">
-        <v>57.5</v>
+        <v>57.2</v>
       </c>
       <c r="L3" t="s">
         <v>20</v>
@@ -581,7 +581,7 @@
         <v>21</v>
       </c>
       <c r="N3">
-        <v>51.54219175917372</v>
+        <v>50.60178744571824</v>
       </c>
       <c r="O3" t="s">
         <v>22</v>

--- a/DECISION/미장_드론_분석.xlsx
+++ b/DECISION/미장_드론_분석.xlsx
@@ -504,13 +504,13 @@
         <v>18</v>
       </c>
       <c r="D2">
-        <v>8.69</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="E2">
-        <v>59</v>
+        <v>59.3</v>
       </c>
       <c r="F2">
-        <v>11.59</v>
+        <v>11.87</v>
       </c>
       <c r="G2">
         <v>60</v>
@@ -534,7 +534,7 @@
         <v>21</v>
       </c>
       <c r="N2">
-        <v>50.60178744571824</v>
+        <v>50.68470204858703</v>
       </c>
       <c r="O2" t="s">
         <v>22</v>
@@ -551,13 +551,13 @@
         <v>19</v>
       </c>
       <c r="D3">
-        <v>15.35</v>
+        <v>15.38</v>
       </c>
       <c r="E3">
-        <v>57.2</v>
+        <v>57.5</v>
       </c>
       <c r="F3">
-        <v>6.34</v>
+        <v>6.58</v>
       </c>
       <c r="G3">
         <v>60</v>
@@ -581,7 +581,7 @@
         <v>21</v>
       </c>
       <c r="N3">
-        <v>50.60178744571824</v>
+        <v>50.68470204858703</v>
       </c>
       <c r="O3" t="s">
         <v>22</v>

--- a/DECISION/미장_드론_분석.xlsx
+++ b/DECISION/미장_드론_분석.xlsx
@@ -525,7 +525,7 @@
         <v>73</v>
       </c>
       <c r="K2">
-        <v>57.2</v>
+        <v>56.7</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
@@ -534,7 +534,7 @@
         <v>21</v>
       </c>
       <c r="N2">
-        <v>50.68470204858703</v>
+        <v>49.16024380385575</v>
       </c>
       <c r="O2" t="s">
         <v>22</v>
@@ -551,13 +551,13 @@
         <v>19</v>
       </c>
       <c r="D3">
-        <v>15.38</v>
+        <v>15.35</v>
       </c>
       <c r="E3">
-        <v>57.5</v>
+        <v>57.2</v>
       </c>
       <c r="F3">
-        <v>6.58</v>
+        <v>6.34</v>
       </c>
       <c r="G3">
         <v>60</v>
@@ -572,7 +572,7 @@
         <v>60</v>
       </c>
       <c r="K3">
-        <v>57.2</v>
+        <v>56.7</v>
       </c>
       <c r="L3" t="s">
         <v>20</v>
@@ -581,7 +581,7 @@
         <v>21</v>
       </c>
       <c r="N3">
-        <v>50.68470204858703</v>
+        <v>49.16024380385575</v>
       </c>
       <c r="O3" t="s">
         <v>22</v>

--- a/DECISION/미장_드론_분석.xlsx
+++ b/DECISION/미장_드론_분석.xlsx
@@ -504,19 +504,19 @@
         <v>18</v>
       </c>
       <c r="D2">
-        <v>8.720000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="E2">
-        <v>59.3</v>
+        <v>57.8</v>
       </c>
       <c r="F2">
-        <v>11.87</v>
+        <v>10.4</v>
       </c>
       <c r="G2">
         <v>60</v>
       </c>
       <c r="H2">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="I2">
         <v>60</v>
@@ -525,7 +525,7 @@
         <v>73</v>
       </c>
       <c r="K2">
-        <v>56.7</v>
+        <v>57.7</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
@@ -534,7 +534,7 @@
         <v>21</v>
       </c>
       <c r="N2">
-        <v>49.16024380385575</v>
+        <v>52.28493729186943</v>
       </c>
       <c r="O2" t="s">
         <v>22</v>
@@ -551,13 +551,13 @@
         <v>19</v>
       </c>
       <c r="D3">
-        <v>15.35</v>
+        <v>15.26</v>
       </c>
       <c r="E3">
-        <v>57.2</v>
+        <v>56.4</v>
       </c>
       <c r="F3">
-        <v>6.34</v>
+        <v>5.75</v>
       </c>
       <c r="G3">
         <v>60</v>
@@ -569,10 +569,10 @@
         <v>60</v>
       </c>
       <c r="J3">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="K3">
-        <v>56.7</v>
+        <v>57.7</v>
       </c>
       <c r="L3" t="s">
         <v>20</v>
@@ -581,7 +581,7 @@
         <v>21</v>
       </c>
       <c r="N3">
-        <v>49.16024380385575</v>
+        <v>52.28493729186943</v>
       </c>
       <c r="O3" t="s">
         <v>22</v>
